--- a/fhir-terminology/Subsets_Conectathon_Test_Data_defects.xlsx
+++ b/fhir-terminology/Subsets_Conectathon_Test_Data_defects.xlsx
@@ -14,14 +14,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="HlFX7F4hDKStOjp9HxvAXqrhsYSCaTJ2GBxXC7Ng9kI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="WL5fEJAZjUnD1OUGvZxEYcRfYB+7w09kK/iiYrT1bw4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="484">
   <si>
     <t>Local Code System</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Diabetes mellitus type 1 (disorder)</t>
+  </si>
+  <si>
+    <t>L1.2</t>
+  </si>
+  <si>
+    <t>Diabetes Mellitus insulino requiriente TT</t>
   </si>
   <si>
     <t>H2</t>
@@ -1737,7 +1743,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1751,10 +1757,19 @@
     <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -2111,467 +2126,492 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="F5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="9">
+        <v>4.6635009E7</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="D6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="15">
         <v>4.4054006E7</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="I6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="12" t="s">
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="B7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="C7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="D7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="15">
         <v>5.9621E7</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="I7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="12" t="s">
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="B8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="15">
         <v>3.70992007E8</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="I8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="12" t="s">
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="B9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="C9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="D9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="15">
         <v>3.5885006E7</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="I9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="12" t="s">
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="B10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="C10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="12">
+      <c r="D10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="15">
         <v>2.2298006E7</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="I10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="12" t="s">
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="B11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="C11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="D11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="15">
         <v>1.3645005E7</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="I11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="12" t="s">
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="B12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="12">
+      <c r="D12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="15">
         <v>5.5464009E7</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="I12" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12">
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="B13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15">
         <v>2.30690007E8</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="I13" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12">
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="B14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15">
         <v>3.7796009E7</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="I14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="12" t="s">
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="B15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="C15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="12">
+      <c r="D15" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="15">
         <v>8.4757009E7</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="I15" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="12" t="s">
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="B16" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="C16" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="12">
+      <c r="D16" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="15">
         <v>4.0930008E7</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="B16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="I16" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="12" t="s">
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="B17" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="9" t="s">
+      <c r="C17" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="12">
+      <c r="D17" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="15">
         <v>2.4079001E7</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="I17" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12" t="s">
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="B18" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="12">
+      <c r="C18" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="15">
         <v>7.7176002E7</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="I18" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="9" t="s">
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="B19" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="12">
+      <c r="C19" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="15">
         <v>4.15510005E8</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="I19" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="12" t="s">
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="B20" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="12" t="s">
+      <c r="C20" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="12">
+      <c r="D20" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="15">
         <v>7.09044004E8</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="I20" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="12" t="s">
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="B21" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12">
+      <c r="C21" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15">
         <v>5.6717001E7</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="I21" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="12" t="s">
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="B22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12">
+      <c r="C22" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15">
         <v>1.5188001E7</v>
       </c>
-      <c r="I21" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="B22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="I22" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="12" t="s">
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="B23" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="C23" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" s="12">
+      <c r="D23" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="15">
         <v>7.8275009E7</v>
       </c>
-      <c r="I22" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="15" t="s">
+      <c r="I23" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="15" t="s">
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="B24" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="15" t="s">
+      <c r="C24" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" s="15">
+      <c r="D24" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="18">
         <v>1.28053003E8</v>
       </c>
-      <c r="I23" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1"/>
+      <c r="I24" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="25" ht="14.25" customHeight="1"/>
     <row r="26" ht="14.25" customHeight="1"/>
     <row r="27" ht="14.25" customHeight="1"/>
@@ -3549,6 +3589,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
     <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C1"/>
@@ -3590,469 +3631,469 @@
     </row>
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>104</v>
+      <c r="B4" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>106</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="19"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>104</v>
+        <v>107</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>106</v>
       </c>
       <c r="H4" s="9">
         <v>5.9621E7</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>107</v>
+      <c r="B5" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="E5" s="16"/>
+      <c r="F5" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="15">
         <v>5.3084003E7</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>109</v>
+      <c r="I5" s="16" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>111</v>
+      <c r="B6" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="13"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" s="12">
+        <v>114</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="15">
         <v>1.95967001E8</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>113</v>
+      <c r="I6" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>115</v>
+      <c r="B7" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="E7" s="16"/>
+      <c r="F7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="15">
         <v>6.9896004E7</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>117</v>
+      <c r="I7" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>119</v>
+      <c r="B8" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="13"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" s="12">
+        <v>122</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="15">
         <v>8.7522002E7</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>121</v>
+      <c r="I8" s="16" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>123</v>
+      <c r="B9" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="12">
+      <c r="E9" s="16"/>
+      <c r="F9" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="15">
         <v>9.1175E7</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>125</v>
+      <c r="I9" s="16" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>127</v>
+      <c r="B10" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="13"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10" s="12">
+        <v>130</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="15">
         <v>3.5489007E7</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>129</v>
+      <c r="I10" s="16" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>131</v>
+      <c r="B11" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H11" s="12">
+      <c r="E11" s="16"/>
+      <c r="F11" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="15">
         <v>2.54837009E8</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>133</v>
+      <c r="I11" s="16" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>135</v>
+      <c r="B12" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="13"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="H12" s="12">
+        <v>138</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="15">
         <v>4.9049E7</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>137</v>
+      <c r="I12" s="16" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>139</v>
+      <c r="B13" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="12">
+      <c r="E13" s="16"/>
+      <c r="F13" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="15">
         <v>6.5404009E7</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>141</v>
+      <c r="I13" s="16" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>143</v>
+      <c r="B14" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="13"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H14" s="12">
+        <v>146</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="15">
         <v>3.4000006E7</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>145</v>
+      <c r="I14" s="16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>147</v>
+      <c r="B15" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="12">
+      <c r="E15" s="16"/>
+      <c r="F15" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="15">
         <v>6.4905009E7</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>149</v>
+      <c r="I15" s="16" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="B16" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>151</v>
+      <c r="B16" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="13"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="12">
+        <v>154</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="15">
         <v>2.1897009E7</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>153</v>
+      <c r="I16" s="16" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>155</v>
+      <c r="B17" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" s="12">
+      <c r="E17" s="16"/>
+      <c r="F17" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="15">
         <v>9.0560007E7</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>157</v>
+      <c r="I17" s="16" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>159</v>
+      <c r="B18" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="13"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H18" s="12">
+        <v>162</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="15">
         <v>1.90268003E8</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>161</v>
+      <c r="I18" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>163</v>
+      <c r="B19" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="H19" s="12">
+      <c r="E19" s="16"/>
+      <c r="F19" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" s="15">
         <v>3.4095006E7</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>165</v>
+      <c r="I19" s="16" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>167</v>
+      <c r="B20" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="13"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="H20" s="12">
+        <v>170</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="15">
         <v>8.0423007E7</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>169</v>
+      <c r="I20" s="16" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>171</v>
+      <c r="B21" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>173</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="H21" s="12">
+      <c r="E21" s="16"/>
+      <c r="F21" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="15">
         <v>1.3200003E7</v>
       </c>
-      <c r="I21" s="13" t="s">
-        <v>173</v>
+      <c r="I21" s="16" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="B22" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>175</v>
+      <c r="B22" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="13"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="H22" s="12">
+        <v>178</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="15">
         <v>2.33850007E8</v>
       </c>
-      <c r="I22" s="13" t="s">
-        <v>177</v>
+      <c r="I22" s="16" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="12" t="s">
+      <c r="B23" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="G23" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="H23" s="15">
+      <c r="C23" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" s="18">
         <v>2.77573001E8</v>
       </c>
-      <c r="I23" s="16" t="s">
-        <v>181</v>
+      <c r="I23" s="19" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
@@ -5071,486 +5112,486 @@
     </row>
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="H3" s="22" t="s">
+      <c r="F3" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>186</v>
+      <c r="B4" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>188</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>186</v>
+        <v>189</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>188</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>188</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>186</v>
       </c>
       <c r="H4" s="9">
         <v>2.8531000087107E13</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>191</v>
+      <c r="B5" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="H5" s="15">
         <v>8.36402002E8</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>194</v>
+      <c r="I5" s="16" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>196</v>
+      <c r="B6" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>198</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>196</v>
+        <v>199</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>198</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="H6" s="15">
         <v>8.71875004E8</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>199</v>
+      <c r="I6" s="16" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>201</v>
+      <c r="B7" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="F7" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="G7" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="H7" s="15">
         <v>8.71717007E8</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>204</v>
+      <c r="I7" s="16" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>206</v>
+      <c r="B8" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>206</v>
+        <v>209</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="H8" s="15">
         <v>8.36374004E8</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>209</v>
+      <c r="I8" s="16" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>211</v>
+      <c r="B9" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>213</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>211</v>
+        <v>214</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>213</v>
       </c>
       <c r="F9" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="H9" s="12">
+      <c r="H9" s="15">
         <v>8.71831003E8</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>214</v>
+      <c r="I9" s="16" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>216</v>
+      <c r="B10" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>216</v>
+        <v>219</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="H10" s="15">
         <v>8.36379009E8</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>219</v>
+      <c r="I10" s="16" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>221</v>
+      <c r="B11" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>221</v>
+        <v>224</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="H11" s="12">
+      <c r="H11" s="15">
         <v>1.051000221104E12</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>224</v>
+      <c r="I11" s="16" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>226</v>
+      <c r="B12" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>228</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>226</v>
+        <v>229</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>228</v>
       </c>
       <c r="F12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="G12" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="H12" s="12">
+      <c r="H12" s="15">
         <v>8.36377006E8</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>229</v>
+      <c r="I12" s="16" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>231</v>
+      <c r="B13" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>233</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>231</v>
+        <v>234</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>233</v>
       </c>
       <c r="F13" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="H13" s="12">
+      <c r="H13" s="15">
         <v>8.36393002E8</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>234</v>
+      <c r="I13" s="16" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>236</v>
+      <c r="B14" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>238</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>236</v>
+        <v>239</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>238</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="G14" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="G14" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="H14" s="12">
+      <c r="H14" s="15">
         <v>8.36398006E8</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>239</v>
+      <c r="I14" s="16" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>241</v>
+      <c r="B15" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>243</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>241</v>
+        <v>244</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>243</v>
       </c>
       <c r="F15" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="G15" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="H15" s="12">
+      <c r="H15" s="15">
         <v>8.71740006E8</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>244</v>
+      <c r="I15" s="16" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="B16" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>246</v>
+      <c r="B16" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>246</v>
+        <v>249</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="F16" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="G16" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="G16" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="H16" s="12">
+      <c r="H16" s="15">
         <v>8.36401009E8</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>249</v>
+      <c r="I16" s="16" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>251</v>
+      <c r="B17" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>251</v>
+        <v>254</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="F17" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="G17" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="G17" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="H17" s="12">
+      <c r="H17" s="15">
         <v>8.36375003E8</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>254</v>
+      <c r="I17" s="16" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>256</v>
+      <c r="B18" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>258</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>256</v>
+        <v>259</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>258</v>
       </c>
       <c r="F18" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="G18" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="G18" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="H18" s="12">
+      <c r="H18" s="15">
         <v>3.7146E7</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>259</v>
+      <c r="I18" s="16" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>261</v>
+      <c r="B19" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>263</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>261</v>
+        <v>264</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>263</v>
       </c>
       <c r="F19" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G19" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="G19" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="H19" s="12">
+      <c r="H19" s="15">
         <v>8.71919004E8</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>264</v>
+      <c r="I19" s="16" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="20"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="20"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="13"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="B22" s="20"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="14"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
     <row r="25" ht="14.25" customHeight="1"/>
@@ -6567,549 +6608,549 @@
     </row>
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="C3" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="H3" s="26" t="s">
+      <c r="F3" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="H3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>268</v>
+      <c r="B4" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>270</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>266</v>
+        <v>239</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>268</v>
       </c>
       <c r="H4" s="9">
         <v>4.14285001E8</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>271</v>
+      <c r="B5" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>273</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H5" s="12">
+        <v>244</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H5" s="15">
         <v>2.94505008E8</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>272</v>
+      <c r="I5" s="16" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>274</v>
+      <c r="B6" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H6" s="12">
+        <v>249</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H6" s="15">
         <v>2.93581006E8</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>275</v>
+      <c r="I6" s="16" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>277</v>
+      <c r="B7" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>279</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H7" s="12">
+        <v>254</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H7" s="15">
         <v>2.93619005E8</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>278</v>
+      <c r="I7" s="16" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>280</v>
+      <c r="B8" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>282</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H8" s="12">
+        <v>259</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H8" s="15">
         <v>1.003755004E9</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>281</v>
+      <c r="I8" s="16" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>283</v>
+      <c r="B9" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>285</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H9" s="12">
+        <v>264</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H9" s="15">
         <v>1.51201000119107E14</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>284</v>
+      <c r="I9" s="16" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>286</v>
+      <c r="B10" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>288</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H10" s="12">
+        <v>289</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H10" s="15">
         <v>2.93586001E8</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>288</v>
+      <c r="I10" s="16" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>290</v>
+      <c r="B11" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>292</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H11" s="12">
+        <v>293</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H11" s="15">
         <v>2.94532003E8</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>292</v>
+      <c r="I11" s="16" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>294</v>
+      <c r="B12" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>296</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H12" s="12">
+        <v>297</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H12" s="15">
         <v>9.1939003E7</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>296</v>
+      <c r="I12" s="16" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>298</v>
+      <c r="B13" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>300</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H13" s="12">
+        <v>301</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H13" s="15">
         <v>8.30259009E8</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>300</v>
+      <c r="I13" s="16" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>302</v>
+      <c r="B14" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>304</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H14" s="12">
+        <v>305</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H14" s="15">
         <v>2.94220003E8</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>304</v>
+      <c r="I14" s="16" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>306</v>
+      <c r="B15" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>308</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H15" s="12">
+        <v>309</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H15" s="15">
         <v>2.94469003E8</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>308</v>
+      <c r="I15" s="16" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="B16" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>310</v>
+      <c r="B16" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>312</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H16" s="12">
+        <v>313</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H16" s="15">
         <v>2.93637006E8</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>312</v>
+      <c r="I16" s="16" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>314</v>
+      <c r="B17" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>316</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H17" s="12">
+        <v>317</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H17" s="15">
         <v>2.93722E8</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>316</v>
+      <c r="I17" s="16" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>318</v>
+      <c r="B18" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H18" s="12">
+        <v>321</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H18" s="15">
         <v>2.94677009E8</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>320</v>
+      <c r="I18" s="16" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>322</v>
+      <c r="B19" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>324</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H19" s="12">
+        <v>325</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H19" s="15">
         <v>7.82555009E8</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>324</v>
+      <c r="I19" s="16" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>326</v>
+      <c r="B20" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>328</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H20" s="12">
+        <v>329</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H20" s="15">
         <v>2.13020009E8</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>328</v>
+      <c r="I20" s="16" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>330</v>
+      <c r="B21" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>332</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H21" s="12">
+        <v>333</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H21" s="15">
         <v>2.93962009E8</v>
       </c>
-      <c r="I21" s="13" t="s">
-        <v>332</v>
+      <c r="I21" s="16" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="B22" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>334</v>
+      <c r="B22" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>336</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H22" s="12">
+        <v>337</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H22" s="15">
         <v>1.269425007E9</v>
       </c>
-      <c r="I22" s="13" t="s">
-        <v>336</v>
+      <c r="I22" s="16" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>338</v>
+      <c r="B23" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>340</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="H23" s="15">
+        <v>341</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="H23" s="18">
         <v>2.93708E8</v>
       </c>
-      <c r="I23" s="16" t="s">
-        <v>340</v>
+      <c r="I23" s="19" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
@@ -8126,549 +8167,549 @@
     </row>
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="H3" s="31" t="s">
+      <c r="F3" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="H3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>343</v>
+      <c r="B4" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>345</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>266</v>
+        <v>305</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>268</v>
       </c>
       <c r="H4" s="9">
         <v>1.09081006E8</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>346</v>
+      <c r="B5" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>348</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H5" s="12">
+        <v>309</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H5" s="15">
         <v>1.5222008E7</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>347</v>
+      <c r="I5" s="16" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>349</v>
+      <c r="B6" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>351</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H6" s="12">
+        <v>313</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H6" s="15">
         <v>7.68532006E8</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>350</v>
+      <c r="I6" s="16" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>352</v>
+      <c r="B7" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>354</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H7" s="12">
+        <v>317</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H7" s="15">
         <v>1.08600003E8</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>353</v>
+      <c r="I7" s="16" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>355</v>
+      <c r="B8" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>357</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H8" s="12">
+        <v>321</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H8" s="15">
         <v>1.26212009E8</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>356</v>
+      <c r="I8" s="16" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>358</v>
+      <c r="B9" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>360</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H9" s="12">
+        <v>325</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H9" s="15">
         <v>9.1143003E7</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>359</v>
+      <c r="I9" s="16" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H10" s="15">
+        <v>2.5673006E7</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="B11" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H11" s="15">
+        <v>4.8603004E7</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="B12" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1.0312003E7</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="B13" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H13" s="15">
+        <v>4.15159003E8</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="B14" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H14" s="15">
+        <v>7.3572009E7</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="B15" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H15" s="15">
+        <v>9.1143003E7</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H10" s="12">
-        <v>2.5673006E7</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H11" s="12">
-        <v>4.8603004E7</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H12" s="12">
-        <v>1.0312003E7</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H13" s="12">
-        <v>4.15159003E8</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H14" s="12">
-        <v>7.3572009E7</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H15" s="12">
-        <v>9.1143003E7</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>359</v>
-      </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="B16" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>380</v>
+      <c r="B16" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>382</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H16" s="12">
+        <v>383</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H16" s="15">
         <v>1.08652002E8</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>382</v>
+      <c r="I16" s="16" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>384</v>
+      <c r="B17" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>386</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H17" s="12">
+        <v>387</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H17" s="15">
         <v>8.7652004E7</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>386</v>
+      <c r="I17" s="16" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>388</v>
+      <c r="B18" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>390</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H18" s="12">
+        <v>391</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H18" s="15">
         <v>4.0820003E7</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>390</v>
+      <c r="I18" s="16" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>392</v>
+      <c r="B19" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>394</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H19" s="12">
+        <v>395</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H19" s="15">
         <v>4.8174005E7</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>394</v>
+      <c r="I19" s="16" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>396</v>
+      <c r="B20" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>398</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H20" s="12">
+        <v>399</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H20" s="15">
         <v>2.5246002E7</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>398</v>
+      <c r="I20" s="16" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>400</v>
+      <c r="B21" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>402</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H21" s="12">
+        <v>403</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H21" s="15">
         <v>9.6309E7</v>
       </c>
-      <c r="I21" s="13" t="s">
-        <v>402</v>
+      <c r="I21" s="16" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="B22" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>404</v>
+      <c r="B22" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>406</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H22" s="12">
+        <v>407</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H22" s="15">
         <v>3.23368009E8</v>
       </c>
-      <c r="I22" s="13" t="s">
-        <v>406</v>
+      <c r="I22" s="16" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>408</v>
+      <c r="B23" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>410</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="H23" s="15">
+        <v>411</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="H23" s="18">
         <v>7947003.0</v>
       </c>
-      <c r="I23" s="16" t="s">
-        <v>410</v>
+      <c r="I23" s="19" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
@@ -9685,549 +9726,549 @@
     </row>
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="D3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="H3" s="33" t="s">
+      <c r="F3" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>413</v>
+      <c r="B4" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>415</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>266</v>
+        <v>376</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>268</v>
       </c>
       <c r="H4" s="9">
         <v>1.68731009E8</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>416</v>
+      <c r="B5" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>418</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H5" s="12">
+        <v>380</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H5" s="15">
         <v>2.41462009E8</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>417</v>
+      <c r="I5" s="16" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>419</v>
+      <c r="B6" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>421</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H6" s="12">
+        <v>383</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H6" s="15">
         <v>7.3761001E7</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>420</v>
+      <c r="I6" s="16" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>422</v>
+      <c r="B7" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>424</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H7" s="12">
+        <v>387</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H7" s="15">
         <v>1.13091E8</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>423</v>
+      <c r="I7" s="16" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>425</v>
+      <c r="B8" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>427</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H8" s="12">
+        <v>391</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H8" s="15">
         <v>3.02497006E8</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>426</v>
+      <c r="I8" s="16" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>428</v>
+      <c r="B9" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>430</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H9" s="12">
+        <v>395</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H9" s="15">
         <v>2.68400002E8</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>429</v>
+      <c r="I9" s="16" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>431</v>
+      <c r="B10" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>433</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H10" s="12">
+        <v>399</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H10" s="15">
         <v>1.27783003E8</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>432</v>
+      <c r="I10" s="16" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>434</v>
+      <c r="B11" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>436</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H11" s="12">
+        <v>403</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H11" s="15">
         <v>1.3714004E7</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>435</v>
+      <c r="I11" s="16" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>437</v>
+      <c r="B12" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>439</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H12" s="12">
+        <v>407</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H12" s="15">
         <v>3.9609006E7</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>438</v>
+      <c r="I12" s="16" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>440</v>
+      <c r="B13" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>442</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H13" s="12">
+        <v>411</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H13" s="15">
         <v>4.1976001E7</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>441</v>
+      <c r="I13" s="16" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>443</v>
+      <c r="B14" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>445</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H14" s="12">
+        <v>446</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H14" s="15">
         <v>1.287742003E9</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>445</v>
+      <c r="I14" s="16" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>447</v>
+      <c r="B15" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>449</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H15" s="12">
+        <v>450</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H15" s="15">
         <v>5.2052004E7</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>449</v>
+      <c r="I15" s="16" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="B16" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>451</v>
+      <c r="B16" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>453</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H16" s="12">
+        <v>454</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H16" s="15">
         <v>7.7343006E7</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>453</v>
+      <c r="I16" s="16" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>455</v>
+      <c r="B17" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>457</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H17" s="12">
+        <v>458</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H17" s="15">
         <v>8.6273004E7</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>457</v>
+      <c r="I17" s="16" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>459</v>
+      <c r="B18" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>461</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H18" s="12">
+        <v>462</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H18" s="15">
         <v>7.3632009E7</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>461</v>
+      <c r="I18" s="16" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>463</v>
+      <c r="B19" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>465</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H19" s="12">
+        <v>466</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H19" s="15">
         <v>4.6973005E7</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>465</v>
+      <c r="I19" s="16" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>467</v>
+      <c r="B20" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>469</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H20" s="12">
+        <v>470</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H20" s="15">
         <v>1.18442004E8</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>469</v>
+      <c r="I20" s="16" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>471</v>
+      <c r="B21" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>473</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H21" s="12">
+        <v>474</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H21" s="15">
         <v>6.0941001E7</v>
       </c>
-      <c r="I21" s="13" t="s">
-        <v>473</v>
+      <c r="I21" s="16" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="B22" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>475</v>
+      <c r="B22" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>477</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="H22" s="12">
+        <v>478</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H22" s="15">
         <v>4.43263006E8</v>
       </c>
-      <c r="I22" s="13" t="s">
-        <v>477</v>
+      <c r="I22" s="16" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>479</v>
+      <c r="B23" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>481</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="H23" s="15">
+        <v>482</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="H23" s="18">
         <v>5.0465008E7</v>
       </c>
-      <c r="I23" s="16" t="s">
-        <v>481</v>
+      <c r="I23" s="19" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
